--- a/excel-files/trebol.xlsx
+++ b/excel-files/trebol.xlsx
@@ -16067,7 +16067,7 @@
     <t xml:space="preserve">Distribuidora EL TRÉBOL   </t>
   </si>
   <si>
-    <t>LISTADO DE PRECIOS 07-07-2023</t>
+    <t>LISTADO DE PRECIOS 14-07-2023</t>
   </si>
   <si>
     <t>AW - Awaduct</t>
@@ -16262,7 +16262,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -16642,7 +16642,7 @@
   <dimension ref="A1:F2917"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17515,7 +17515,7 @@
         <v>672</v>
       </c>
       <c r="C59" s="5">
-        <v>15481.74</v>
+        <v>16968.97</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>59</v>
@@ -17543,7 +17543,7 @@
         <v>670</v>
       </c>
       <c r="C61" s="5">
-        <v>8094.67</v>
+        <v>8849.9699999999993</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>59</v>
@@ -17571,7 +17571,7 @@
         <v>671</v>
       </c>
       <c r="C63" s="5">
-        <v>10674.18</v>
+        <v>11722.01</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>59</v>
@@ -17585,7 +17585,7 @@
         <v>677</v>
       </c>
       <c r="C64" s="5">
-        <v>13350.42</v>
+        <v>13216.9</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>59</v>
@@ -17599,7 +17599,7 @@
         <v>679</v>
       </c>
       <c r="C65" s="5">
-        <v>21571.1</v>
+        <v>21690.720000000001</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>59</v>
@@ -19237,7 +19237,7 @@
         <v>888</v>
       </c>
       <c r="C182" s="5">
-        <v>4957.43</v>
+        <v>5181.83</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>59</v>
@@ -19251,7 +19251,7 @@
         <v>886</v>
       </c>
       <c r="C183" s="5">
-        <v>2017.38</v>
+        <v>2262.13</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>59</v>
@@ -19349,7 +19349,7 @@
         <v>896</v>
       </c>
       <c r="C190" s="5">
-        <v>10487.16</v>
+        <v>10807.73</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>59</v>
@@ -19363,7 +19363,7 @@
         <v>894</v>
       </c>
       <c r="C191" s="5">
-        <v>9035.68</v>
+        <v>9402.86</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>59</v>
@@ -19377,7 +19377,7 @@
         <v>892</v>
       </c>
       <c r="C192" s="5">
-        <v>6304.64</v>
+        <v>6549.39</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>59</v>
@@ -19391,7 +19391,7 @@
         <v>890</v>
       </c>
       <c r="C193" s="5">
-        <v>3266.18</v>
+        <v>3507.71</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>59</v>
@@ -22317,7 +22317,7 @@
         <v>3673</v>
       </c>
       <c r="C402" s="5">
-        <v>1831.33</v>
+        <v>2084.79</v>
       </c>
       <c r="D402" s="7" t="s">
         <v>59</v>
@@ -23633,7 +23633,7 @@
         <v>1317</v>
       </c>
       <c r="C496" s="5">
-        <v>2525.7199999999998</v>
+        <v>2807.83</v>
       </c>
       <c r="D496" s="7" t="s">
         <v>59</v>
@@ -24697,7 +24697,7 @@
         <v>675</v>
       </c>
       <c r="C572" s="5">
-        <v>734.25</v>
+        <v>773.94</v>
       </c>
       <c r="D572" s="7" t="s">
         <v>59</v>
@@ -25607,7 +25607,7 @@
         <v>1578</v>
       </c>
       <c r="C637" s="5">
-        <v>373.01</v>
+        <v>403.46</v>
       </c>
       <c r="D637" s="7" t="s">
         <v>59</v>
@@ -25621,7 +25621,7 @@
         <v>1586</v>
       </c>
       <c r="C638" s="5">
-        <v>1210.42</v>
+        <v>1309.22</v>
       </c>
       <c r="D638" s="7" t="s">
         <v>59</v>
@@ -25635,7 +25635,7 @@
         <v>1584</v>
       </c>
       <c r="C639" s="5">
-        <v>898.77</v>
+        <v>972.13</v>
       </c>
       <c r="D639" s="7" t="s">
         <v>59</v>
@@ -25649,7 +25649,7 @@
         <v>1596</v>
       </c>
       <c r="C640" s="5">
-        <v>1100.3699999999999</v>
+        <v>1190.19</v>
       </c>
       <c r="D640" s="7" t="s">
         <v>59</v>
@@ -25663,7 +25663,7 @@
         <v>1582</v>
       </c>
       <c r="C641" s="5">
-        <v>530.77</v>
+        <v>574.1</v>
       </c>
       <c r="D641" s="7" t="s">
         <v>59</v>
@@ -25677,7 +25677,7 @@
         <v>1592</v>
       </c>
       <c r="C642" s="5">
-        <v>586.04</v>
+        <v>633.89</v>
       </c>
       <c r="D642" s="7" t="s">
         <v>59</v>
@@ -25691,7 +25691,7 @@
         <v>1590</v>
       </c>
       <c r="C643" s="5">
-        <v>2662.04</v>
+        <v>2879.36</v>
       </c>
       <c r="D643" s="7" t="s">
         <v>59</v>
@@ -25705,7 +25705,7 @@
         <v>1588</v>
       </c>
       <c r="C644" s="5">
-        <v>1719.01</v>
+        <v>1859.33</v>
       </c>
       <c r="D644" s="7" t="s">
         <v>59</v>
@@ -25719,7 +25719,7 @@
         <v>1594</v>
       </c>
       <c r="C645" s="5">
-        <v>747.78</v>
+        <v>808.81</v>
       </c>
       <c r="D645" s="7" t="s">
         <v>59</v>
@@ -25733,7 +25733,7 @@
         <v>1580</v>
       </c>
       <c r="C646" s="5">
-        <v>409.57</v>
+        <v>443.02</v>
       </c>
       <c r="D646" s="7" t="s">
         <v>59</v>
@@ -30171,7 +30171,7 @@
         <v>4583</v>
       </c>
       <c r="C963" s="5">
-        <v>517.15</v>
+        <v>540.13</v>
       </c>
       <c r="D963" s="7" t="s">
         <v>59</v>
@@ -30185,7 +30185,7 @@
         <v>4587</v>
       </c>
       <c r="C964" s="5">
-        <v>639.49</v>
+        <v>667.92</v>
       </c>
       <c r="D964" s="7" t="s">
         <v>59</v>
@@ -30199,7 +30199,7 @@
         <v>4589</v>
       </c>
       <c r="C965" s="5">
-        <v>1054.32</v>
+        <v>1101.17</v>
       </c>
       <c r="D965" s="7" t="s">
         <v>59</v>
@@ -30213,7 +30213,7 @@
         <v>4591</v>
       </c>
       <c r="C966" s="5">
-        <v>1027.9100000000001</v>
+        <v>1073.6099999999999</v>
       </c>
       <c r="D966" s="7" t="s">
         <v>59</v>
@@ -30227,7 +30227,7 @@
         <v>4593</v>
       </c>
       <c r="C967" s="5">
-        <v>5317.7</v>
+        <v>5554.04</v>
       </c>
       <c r="D967" s="7" t="s">
         <v>59</v>
@@ -30241,7 +30241,7 @@
         <v>4595</v>
       </c>
       <c r="C968" s="5">
-        <v>6892.68</v>
+        <v>7199.03</v>
       </c>
       <c r="D968" s="7" t="s">
         <v>59</v>
@@ -30255,7 +30255,7 @@
         <v>4597</v>
       </c>
       <c r="C969" s="5">
-        <v>10506.31</v>
+        <v>10973.24</v>
       </c>
       <c r="D969" s="7" t="s">
         <v>59</v>
@@ -30269,7 +30269,7 @@
         <v>4599</v>
       </c>
       <c r="C970" s="5">
-        <v>12122.69</v>
+        <v>12661.47</v>
       </c>
       <c r="D970" s="7" t="s">
         <v>59</v>
@@ -30283,7 +30283,7 @@
         <v>4585</v>
       </c>
       <c r="C971" s="5">
-        <v>4297.5</v>
+        <v>4488.49</v>
       </c>
       <c r="D971" s="7" t="s">
         <v>59</v>
@@ -30297,7 +30297,7 @@
         <v>4609</v>
       </c>
       <c r="C972" s="5">
-        <v>911.69</v>
+        <v>952.21</v>
       </c>
       <c r="D972" s="7" t="s">
         <v>59</v>
@@ -30311,7 +30311,7 @@
         <v>4601</v>
       </c>
       <c r="C973" s="5">
-        <v>634.12</v>
+        <v>662.29</v>
       </c>
       <c r="D973" s="7" t="s">
         <v>59</v>
@@ -30325,7 +30325,7 @@
         <v>4617</v>
       </c>
       <c r="C974" s="5">
-        <v>1209.75</v>
+        <v>1263.51</v>
       </c>
       <c r="D974" s="7" t="s">
         <v>59</v>
@@ -30339,7 +30339,7 @@
         <v>4611</v>
       </c>
       <c r="C975" s="5">
-        <v>1046.72</v>
+        <v>1093.25</v>
       </c>
       <c r="D975" s="7" t="s">
         <v>59</v>
@@ -30353,7 +30353,7 @@
         <v>4603</v>
       </c>
       <c r="C976" s="5">
-        <v>691.63</v>
+        <v>722.37</v>
       </c>
       <c r="D976" s="7" t="s">
         <v>59</v>
@@ -30367,7 +30367,7 @@
         <v>4619</v>
       </c>
       <c r="C977" s="5">
-        <v>1565.08</v>
+        <v>1634.63</v>
       </c>
       <c r="D977" s="7" t="s">
         <v>59</v>
@@ -30381,7 +30381,7 @@
         <v>4621</v>
       </c>
       <c r="C978" s="5">
-        <v>1796.98</v>
+        <v>1876.86</v>
       </c>
       <c r="D978" s="7" t="s">
         <v>59</v>
@@ -30395,7 +30395,7 @@
         <v>4613</v>
       </c>
       <c r="C979" s="5">
-        <v>1164.2</v>
+        <v>1215.94</v>
       </c>
       <c r="D979" s="7" t="s">
         <v>59</v>
@@ -30409,7 +30409,7 @@
         <v>4605</v>
       </c>
       <c r="C980" s="5">
-        <v>1063.1400000000001</v>
+        <v>1110.3900000000001</v>
       </c>
       <c r="D980" s="7" t="s">
         <v>59</v>
@@ -30423,7 +30423,7 @@
         <v>4625</v>
       </c>
       <c r="C981" s="5">
-        <v>2795.07</v>
+        <v>2919.29</v>
       </c>
       <c r="D981" s="7" t="s">
         <v>59</v>
@@ -30437,7 +30437,7 @@
         <v>4623</v>
       </c>
       <c r="C982" s="5">
-        <v>2286.7800000000002</v>
+        <v>2388.42</v>
       </c>
       <c r="D982" s="7" t="s">
         <v>59</v>
@@ -30451,7 +30451,7 @@
         <v>4615</v>
       </c>
       <c r="C983" s="5">
-        <v>2732.57</v>
+        <v>2854.01</v>
       </c>
       <c r="D983" s="7" t="s">
         <v>59</v>
@@ -30465,7 +30465,7 @@
         <v>4607</v>
       </c>
       <c r="C984" s="5">
-        <v>1850.23</v>
+        <v>1932.46</v>
       </c>
       <c r="D984" s="7" t="s">
         <v>59</v>
@@ -30479,7 +30479,7 @@
         <v>4629</v>
       </c>
       <c r="C985" s="5">
-        <v>4813.26</v>
+        <v>5027.18</v>
       </c>
       <c r="D985" s="7" t="s">
         <v>59</v>
@@ -30493,7 +30493,7 @@
         <v>4627</v>
       </c>
       <c r="C986" s="5">
-        <v>4687.63</v>
+        <v>4895.97</v>
       </c>
       <c r="D986" s="7" t="s">
         <v>59</v>
@@ -30507,7 +30507,7 @@
         <v>4631</v>
       </c>
       <c r="C987" s="5">
-        <v>454.08</v>
+        <v>474.27</v>
       </c>
       <c r="D987" s="7" t="s">
         <v>59</v>
@@ -30521,7 +30521,7 @@
         <v>4633</v>
       </c>
       <c r="C988" s="5">
-        <v>541.77</v>
+        <v>565.85</v>
       </c>
       <c r="D988" s="7" t="s">
         <v>59</v>
@@ -30535,7 +30535,7 @@
         <v>4635</v>
       </c>
       <c r="C989" s="5">
-        <v>534.6</v>
+        <v>558.36</v>
       </c>
       <c r="D989" s="7" t="s">
         <v>59</v>
@@ -30549,7 +30549,7 @@
         <v>4637</v>
       </c>
       <c r="C990" s="5">
-        <v>2343.4899999999998</v>
+        <v>2447.64</v>
       </c>
       <c r="D990" s="7" t="s">
         <v>59</v>
@@ -30563,7 +30563,7 @@
         <v>4639</v>
       </c>
       <c r="C991" s="5">
-        <v>2436.4</v>
+        <v>2544.69</v>
       </c>
       <c r="D991" s="7" t="s">
         <v>59</v>
@@ -30577,7 +30577,7 @@
         <v>4641</v>
       </c>
       <c r="C992" s="5">
-        <v>267.11</v>
+        <v>278.98</v>
       </c>
       <c r="D992" s="7" t="s">
         <v>59</v>
@@ -30591,7 +30591,7 @@
         <v>4643</v>
       </c>
       <c r="C993" s="5">
-        <v>267.11</v>
+        <v>278.98</v>
       </c>
       <c r="D993" s="7" t="s">
         <v>59</v>
@@ -30605,7 +30605,7 @@
         <v>4645</v>
       </c>
       <c r="C994" s="5">
-        <v>267.11</v>
+        <v>278.98</v>
       </c>
       <c r="D994" s="7" t="s">
         <v>59</v>
@@ -30619,7 +30619,7 @@
         <v>4647</v>
       </c>
       <c r="C995" s="5">
-        <v>283.91000000000003</v>
+        <v>296.52999999999997</v>
       </c>
       <c r="D995" s="7" t="s">
         <v>59</v>
@@ -30633,7 +30633,7 @@
         <v>4703</v>
       </c>
       <c r="C996" s="5">
-        <v>442.01</v>
+        <v>461.65</v>
       </c>
       <c r="D996" s="7" t="s">
         <v>59</v>
@@ -30647,7 +30647,7 @@
         <v>4705</v>
       </c>
       <c r="C997" s="5">
-        <v>486.65</v>
+        <v>508.28</v>
       </c>
       <c r="D997" s="7" t="s">
         <v>59</v>
@@ -30661,7 +30661,7 @@
         <v>4707</v>
       </c>
       <c r="C998" s="5">
-        <v>541.09</v>
+        <v>565.13</v>
       </c>
       <c r="D998" s="7" t="s">
         <v>59</v>
@@ -30675,7 +30675,7 @@
         <v>4709</v>
       </c>
       <c r="C999" s="5">
-        <v>722.57</v>
+        <v>754.68</v>
       </c>
       <c r="D999" s="7" t="s">
         <v>59</v>
@@ -30689,7 +30689,7 @@
         <v>4577</v>
       </c>
       <c r="C1000" s="5">
-        <v>1070.6099999999999</v>
+        <v>1118.18</v>
       </c>
       <c r="D1000" s="7" t="s">
         <v>59</v>
@@ -30703,7 +30703,7 @@
         <v>4579</v>
       </c>
       <c r="C1001" s="5">
-        <v>1388.25</v>
+        <v>1449.94</v>
       </c>
       <c r="D1001" s="7" t="s">
         <v>59</v>
@@ -30717,7 +30717,7 @@
         <v>4711</v>
       </c>
       <c r="C1002" s="5">
-        <v>1268.82</v>
+        <v>1325.22</v>
       </c>
       <c r="D1002" s="7" t="s">
         <v>59</v>
@@ -30731,7 +30731,7 @@
         <v>4715</v>
       </c>
       <c r="C1003" s="5">
-        <v>1356.94</v>
+        <v>1417.24</v>
       </c>
       <c r="D1003" s="7" t="s">
         <v>59</v>
@@ -30745,7 +30745,7 @@
         <v>4695</v>
       </c>
       <c r="C1004" s="5">
-        <v>428.04</v>
+        <v>447.07</v>
       </c>
       <c r="D1004" s="7" t="s">
         <v>59</v>
@@ -30759,7 +30759,7 @@
         <v>4697</v>
       </c>
       <c r="C1005" s="5">
-        <v>469.7</v>
+        <v>490.57</v>
       </c>
       <c r="D1005" s="7" t="s">
         <v>59</v>
@@ -30773,7 +30773,7 @@
         <v>4699</v>
       </c>
       <c r="C1006" s="5">
-        <v>487.13</v>
+        <v>508.78</v>
       </c>
       <c r="D1006" s="7" t="s">
         <v>59</v>
@@ -30787,7 +30787,7 @@
         <v>4701</v>
       </c>
       <c r="C1007" s="5">
-        <v>1237.6199999999999</v>
+        <v>1292.6199999999999</v>
       </c>
       <c r="D1007" s="7" t="s">
         <v>59</v>
@@ -30801,7 +30801,7 @@
         <v>4649</v>
       </c>
       <c r="C1008" s="5">
-        <v>1195.52</v>
+        <v>1248.6500000000001</v>
       </c>
       <c r="D1008" s="7" t="s">
         <v>59</v>
@@ -30815,7 +30815,7 @@
         <v>4651</v>
       </c>
       <c r="C1009" s="5">
-        <v>1283.17</v>
+        <v>1340.19</v>
       </c>
       <c r="D1009" s="7" t="s">
         <v>59</v>
@@ -30829,7 +30829,7 @@
         <v>4657</v>
       </c>
       <c r="C1010" s="5">
-        <v>1315.46</v>
+        <v>1373.93</v>
       </c>
       <c r="D1010" s="7" t="s">
         <v>59</v>
@@ -30843,7 +30843,7 @@
         <v>4653</v>
       </c>
       <c r="C1011" s="5">
-        <v>1688.86</v>
+        <v>1763.92</v>
       </c>
       <c r="D1011" s="7" t="s">
         <v>59</v>
@@ -30857,7 +30857,7 @@
         <v>4659</v>
       </c>
       <c r="C1012" s="5">
-        <v>1536.15</v>
+        <v>1604.42</v>
       </c>
       <c r="D1012" s="7" t="s">
         <v>59</v>
@@ -30871,7 +30871,7 @@
         <v>4661</v>
       </c>
       <c r="C1013" s="5">
-        <v>1479.74</v>
+        <v>1545.52</v>
       </c>
       <c r="D1013" s="7" t="s">
         <v>59</v>
@@ -30885,7 +30885,7 @@
         <v>4655</v>
       </c>
       <c r="C1014" s="5">
-        <v>3023.96</v>
+        <v>3158.36</v>
       </c>
       <c r="D1014" s="7" t="s">
         <v>59</v>
@@ -30899,7 +30899,7 @@
         <v>4663</v>
       </c>
       <c r="C1015" s="5">
-        <v>2685.41</v>
+        <v>2804.76</v>
       </c>
       <c r="D1015" s="7" t="s">
         <v>59</v>
@@ -30913,7 +30913,7 @@
         <v>4665</v>
       </c>
       <c r="C1016" s="5">
-        <v>2819.69</v>
+        <v>2944.99</v>
       </c>
       <c r="D1016" s="7" t="s">
         <v>59</v>
@@ -30927,7 +30927,7 @@
         <v>4667</v>
       </c>
       <c r="C1017" s="5">
-        <v>1018.94</v>
+        <v>1064.23</v>
       </c>
       <c r="D1017" s="7" t="s">
         <v>59</v>
@@ -30941,7 +30941,7 @@
         <v>4677</v>
       </c>
       <c r="C1018" s="5">
-        <v>1140.52</v>
+        <v>1191.2</v>
       </c>
       <c r="D1018" s="7" t="s">
         <v>59</v>
@@ -30955,7 +30955,7 @@
         <v>4669</v>
       </c>
       <c r="C1019" s="5">
-        <v>1367.7</v>
+        <v>1428.48</v>
       </c>
       <c r="D1019" s="7" t="s">
         <v>59</v>
@@ -30969,7 +30969,7 @@
         <v>4679</v>
       </c>
       <c r="C1020" s="5">
-        <v>1418.93</v>
+        <v>1482</v>
       </c>
       <c r="D1020" s="7" t="s">
         <v>59</v>
@@ -30983,7 +30983,7 @@
         <v>4671</v>
       </c>
       <c r="C1021" s="5">
-        <v>1343.69</v>
+        <v>1403.41</v>
       </c>
       <c r="D1021" s="7" t="s">
         <v>59</v>
@@ -30997,7 +30997,7 @@
         <v>4681</v>
       </c>
       <c r="C1022" s="5">
-        <v>1535.68</v>
+        <v>1603.94</v>
       </c>
       <c r="D1022" s="7" t="s">
         <v>59</v>
@@ -31011,7 +31011,7 @@
         <v>4673</v>
       </c>
       <c r="C1023" s="5">
-        <v>1756.19</v>
+        <v>1834.24</v>
       </c>
       <c r="D1023" s="7" t="s">
         <v>59</v>
@@ -31025,7 +31025,7 @@
         <v>4683</v>
       </c>
       <c r="C1024" s="5">
-        <v>1972.51</v>
+        <v>2060.17</v>
       </c>
       <c r="D1024" s="7" t="s">
         <v>59</v>
@@ -31039,7 +31039,7 @@
         <v>4675</v>
       </c>
       <c r="C1025" s="5">
-        <v>3567.8</v>
+        <v>3726.36</v>
       </c>
       <c r="D1025" s="7" t="s">
         <v>59</v>
@@ -31053,7 +31053,7 @@
         <v>4685</v>
       </c>
       <c r="C1026" s="5">
-        <v>4085.55</v>
+        <v>4267.12</v>
       </c>
       <c r="D1026" s="7" t="s">
         <v>59</v>
@@ -31067,7 +31067,7 @@
         <v>4687</v>
       </c>
       <c r="C1027" s="5">
-        <v>476.54</v>
+        <v>497.72</v>
       </c>
       <c r="D1027" s="7" t="s">
         <v>59</v>
@@ -31081,7 +31081,7 @@
         <v>4689</v>
       </c>
       <c r="C1028" s="5">
-        <v>536.69000000000005</v>
+        <v>560.54999999999995</v>
       </c>
       <c r="D1028" s="7" t="s">
         <v>59</v>
@@ -31095,7 +31095,7 @@
         <v>4691</v>
       </c>
       <c r="C1029" s="5">
-        <v>609.32000000000005</v>
+        <v>636.4</v>
       </c>
       <c r="D1029" s="7" t="s">
         <v>59</v>
@@ -31109,7 +31109,7 @@
         <v>4693</v>
       </c>
       <c r="C1030" s="5">
-        <v>1451.14</v>
+        <v>1515.65</v>
       </c>
       <c r="D1030" s="7" t="s">
         <v>59</v>
@@ -31123,7 +31123,7 @@
         <v>4581</v>
       </c>
       <c r="C1031" s="5">
-        <v>3023.87</v>
+        <v>3158.25</v>
       </c>
       <c r="D1031" s="7" t="s">
         <v>59</v>
@@ -31137,7 +31137,7 @@
         <v>4713</v>
       </c>
       <c r="C1032" s="5">
-        <v>6753.75</v>
+        <v>7053.91</v>
       </c>
       <c r="D1032" s="7" t="s">
         <v>59</v>
@@ -31151,7 +31151,7 @@
         <v>4717</v>
       </c>
       <c r="C1033" s="5">
-        <v>6760.87</v>
+        <v>7061.36</v>
       </c>
       <c r="D1033" s="7" t="s">
         <v>59</v>
@@ -31165,7 +31165,7 @@
         <v>4719</v>
       </c>
       <c r="C1034" s="5">
-        <v>16344.3</v>
+        <v>17070.71</v>
       </c>
       <c r="D1034" s="7" t="s">
         <v>59</v>
@@ -31179,7 +31179,7 @@
         <v>4721</v>
       </c>
       <c r="C1035" s="5">
-        <v>5750.15</v>
+        <v>6005.71</v>
       </c>
       <c r="D1035" s="7" t="s">
         <v>59</v>
@@ -41717,7 +41717,7 @@
         <v>3017</v>
       </c>
       <c r="C1788" s="5">
-        <v>810.99</v>
+        <v>862.32</v>
       </c>
       <c r="D1788" s="7" t="s">
         <v>4</v>
@@ -43369,7 +43369,7 @@
         <v>3295</v>
       </c>
       <c r="C1906" s="5">
-        <v>4105.3999999999996</v>
+        <v>4559.62</v>
       </c>
       <c r="D1906" s="7" t="s">
         <v>59</v>
@@ -43383,7 +43383,7 @@
         <v>3299</v>
       </c>
       <c r="C1907" s="5">
-        <v>4728.8500000000004</v>
+        <v>5188.8100000000004</v>
       </c>
       <c r="D1907" s="7" t="s">
         <v>59</v>
@@ -43397,7 +43397,7 @@
         <v>3301</v>
       </c>
       <c r="C1908" s="5">
-        <v>21891.57</v>
+        <v>23954.52</v>
       </c>
       <c r="D1908" s="7" t="s">
         <v>59</v>
@@ -43411,7 +43411,7 @@
         <v>3303</v>
       </c>
       <c r="C1909" s="5">
-        <v>11799.84</v>
+        <v>13160.4</v>
       </c>
       <c r="D1909" s="7" t="s">
         <v>59</v>
@@ -43425,7 +43425,7 @@
         <v>3297</v>
       </c>
       <c r="C1910" s="5">
-        <v>9967.7999999999993</v>
+        <v>11084</v>
       </c>
       <c r="D1910" s="7" t="s">
         <v>59</v>
@@ -43439,7 +43439,7 @@
         <v>3305</v>
       </c>
       <c r="C1911" s="5">
-        <v>13681.68</v>
+        <v>15146.74</v>
       </c>
       <c r="D1911" s="7" t="s">
         <v>59</v>
@@ -43453,7 +43453,7 @@
         <v>3307</v>
       </c>
       <c r="C1912" s="5">
-        <v>3282.7</v>
+        <v>3638.38</v>
       </c>
       <c r="D1912" s="7" t="s">
         <v>59</v>
@@ -48255,7 +48255,7 @@
         <v>3685</v>
       </c>
       <c r="C2255" s="5">
-        <v>2578.19</v>
+        <v>2908.5</v>
       </c>
       <c r="D2255" s="7" t="s">
         <v>59</v>
@@ -50425,7 +50425,7 @@
         <v>3315</v>
       </c>
       <c r="C2410" s="5">
-        <v>1679.57</v>
+        <v>1803.33</v>
       </c>
       <c r="D2410" s="7" t="s">
         <v>59</v>
@@ -50439,7 +50439,7 @@
         <v>3331</v>
       </c>
       <c r="C2411" s="5">
-        <v>1656.66</v>
+        <v>1778.73</v>
       </c>
       <c r="D2411" s="7" t="s">
         <v>59</v>
@@ -50453,7 +50453,7 @@
         <v>3325</v>
       </c>
       <c r="C2412" s="5">
-        <v>593.96</v>
+        <v>637.71</v>
       </c>
       <c r="D2412" s="7" t="s">
         <v>59</v>
@@ -50467,7 +50467,7 @@
         <v>3329</v>
       </c>
       <c r="C2413" s="5">
-        <v>1043.75</v>
+        <v>1120.6600000000001</v>
       </c>
       <c r="D2413" s="7" t="s">
         <v>59</v>
@@ -50593,7 +50593,7 @@
         <v>4164</v>
       </c>
       <c r="C2422" s="5">
-        <v>57.18</v>
+        <v>64.319999999999993</v>
       </c>
       <c r="D2422" s="7" t="s">
         <v>4</v>
@@ -50621,7 +50621,7 @@
         <v>4160</v>
       </c>
       <c r="C2424" s="5">
-        <v>374.07</v>
+        <v>456.4</v>
       </c>
       <c r="D2424" s="7" t="s">
         <v>4</v>
@@ -50635,7 +50635,7 @@
         <v>4152</v>
       </c>
       <c r="C2425" s="5">
-        <v>271.29000000000002</v>
+        <v>303.85000000000002</v>
       </c>
       <c r="D2425" s="7" t="s">
         <v>4</v>
@@ -50663,7 +50663,7 @@
         <v>4154</v>
       </c>
       <c r="C2427" s="5">
-        <v>468.69</v>
+        <v>524.92999999999995</v>
       </c>
       <c r="D2427" s="7" t="s">
         <v>4</v>
@@ -50677,7 +50677,7 @@
         <v>4158</v>
       </c>
       <c r="C2428" s="5">
-        <v>587.84</v>
+        <v>658.36</v>
       </c>
       <c r="D2428" s="7" t="s">
         <v>4</v>
@@ -50691,7 +50691,7 @@
         <v>4156</v>
       </c>
       <c r="C2429" s="5">
-        <v>739.7</v>
+        <v>829.04</v>
       </c>
       <c r="D2429" s="7" t="s">
         <v>4</v>
@@ -50705,7 +50705,7 @@
         <v>4166</v>
       </c>
       <c r="C2430" s="5">
-        <v>273.72000000000003</v>
+        <v>300.88</v>
       </c>
       <c r="D2430" s="7" t="s">
         <v>4</v>
@@ -50719,7 +50719,7 @@
         <v>4150</v>
       </c>
       <c r="C2431" s="5">
-        <v>2237.19</v>
+        <v>2482.83</v>
       </c>
       <c r="D2431" s="7" t="s">
         <v>4</v>
@@ -50733,7 +50733,7 @@
         <v>4148</v>
       </c>
       <c r="C2432" s="5">
-        <v>698.51</v>
+        <v>775.34</v>
       </c>
       <c r="D2432" s="7" t="s">
         <v>4</v>
@@ -50747,7 +50747,7 @@
         <v>4172</v>
       </c>
       <c r="C2433" s="5">
-        <v>1835.1</v>
+        <v>2037</v>
       </c>
       <c r="D2433" s="7" t="s">
         <v>4</v>
@@ -50803,7 +50803,7 @@
         <v>4144</v>
       </c>
       <c r="C2437" s="5">
-        <v>3379.63</v>
+        <v>3751.4</v>
       </c>
       <c r="D2437" s="7" t="s">
         <v>4</v>
@@ -50831,7 +50831,7 @@
         <v>4168</v>
       </c>
       <c r="C2439" s="5">
-        <v>2815.45</v>
+        <v>3125.13</v>
       </c>
       <c r="D2439" s="7" t="s">
         <v>4</v>
@@ -50845,7 +50845,7 @@
         <v>4146</v>
       </c>
       <c r="C2440" s="5">
-        <v>2237.19</v>
+        <v>2482.83</v>
       </c>
       <c r="D2440" s="7" t="s">
         <v>4</v>
@@ -50859,7 +50859,7 @@
         <v>4170</v>
       </c>
       <c r="C2441" s="5">
-        <v>1835.1</v>
+        <v>2037</v>
       </c>
       <c r="D2441" s="7" t="s">
         <v>4</v>
@@ -50873,7 +50873,7 @@
         <v>4208</v>
       </c>
       <c r="C2442" s="5">
-        <v>6830.15</v>
+        <v>9562.5400000000009</v>
       </c>
       <c r="D2442" s="7" t="s">
         <v>4</v>
@@ -50887,7 +50887,7 @@
         <v>4140</v>
       </c>
       <c r="C2443" s="5">
-        <v>1177.23</v>
+        <v>1306.74</v>
       </c>
       <c r="D2443" s="7" t="s">
         <v>4</v>
@@ -50901,7 +50901,7 @@
         <v>4142</v>
       </c>
       <c r="C2444" s="5">
-        <v>733.43</v>
+        <v>814.11</v>
       </c>
       <c r="D2444" s="7" t="s">
         <v>4</v>
@@ -51097,7 +51097,7 @@
         <v>4162</v>
       </c>
       <c r="C2458" s="5">
-        <v>294.81</v>
+        <v>359.7</v>
       </c>
       <c r="D2458" s="7" t="s">
         <v>4</v>
@@ -52721,7 +52721,7 @@
         <v>4272</v>
       </c>
       <c r="C2574" s="5">
-        <v>4908.12</v>
+        <v>6336.61</v>
       </c>
       <c r="D2574" s="7" t="s">
         <v>59</v>
@@ -52791,7 +52791,7 @@
         <v>4268</v>
       </c>
       <c r="C2579" s="5">
-        <v>5179.76</v>
+        <v>5878.95</v>
       </c>
       <c r="D2579" s="7" t="s">
         <v>59</v>
@@ -52805,7 +52805,7 @@
         <v>4270</v>
       </c>
       <c r="C2580" s="5">
-        <v>3013.78</v>
+        <v>3420.58</v>
       </c>
       <c r="D2580" s="7" t="s">
         <v>59</v>
@@ -52819,7 +52819,7 @@
         <v>4274</v>
       </c>
       <c r="C2581" s="5">
-        <v>3714.23</v>
+        <v>4215.6000000000004</v>
       </c>
       <c r="D2581" s="7" t="s">
         <v>59</v>
@@ -53001,7 +53001,7 @@
         <v>4567</v>
       </c>
       <c r="C2594" s="5">
-        <v>123.81</v>
+        <v>129.84</v>
       </c>
       <c r="D2594" s="7" t="s">
         <v>4</v>
@@ -53015,7 +53015,7 @@
         <v>4569</v>
       </c>
       <c r="C2595" s="5">
-        <v>132.33000000000001</v>
+        <v>161.28</v>
       </c>
       <c r="D2595" s="7" t="s">
         <v>4</v>
@@ -56039,7 +56039,7 @@
         <v>5030</v>
       </c>
       <c r="C2811" s="5">
-        <v>6581.27</v>
+        <v>6873.76</v>
       </c>
       <c r="D2811" s="7" t="s">
         <v>59</v>
@@ -56067,7 +56067,7 @@
         <v>5044</v>
       </c>
       <c r="C2813" s="5">
-        <v>13069.77</v>
+        <v>13650.65</v>
       </c>
       <c r="D2813" s="7" t="s">
         <v>59</v>
@@ -56151,7 +56151,7 @@
         <v>5034</v>
       </c>
       <c r="C2819" s="5">
-        <v>4008.76</v>
+        <v>4186.92</v>
       </c>
       <c r="D2819" s="7" t="s">
         <v>59</v>
@@ -56165,7 +56165,7 @@
         <v>5036</v>
       </c>
       <c r="C2820" s="5">
-        <v>5044.78</v>
+        <v>5268.98</v>
       </c>
       <c r="D2820" s="7" t="s">
         <v>59</v>
@@ -56193,7 +56193,7 @@
         <v>5038</v>
       </c>
       <c r="C2822" s="5">
-        <v>7450.49</v>
+        <v>7781.62</v>
       </c>
       <c r="D2822" s="7" t="s">
         <v>59</v>
@@ -56207,7 +56207,7 @@
         <v>5040</v>
       </c>
       <c r="C2823" s="5">
-        <v>12592.22</v>
+        <v>13151.87</v>
       </c>
       <c r="D2823" s="7" t="s">
         <v>59</v>
@@ -56221,7 +56221,7 @@
         <v>5042</v>
       </c>
       <c r="C2824" s="5">
-        <v>13051.13</v>
+        <v>13631.18</v>
       </c>
       <c r="D2824" s="7" t="s">
         <v>59</v>
@@ -56235,7 +56235,7 @@
         <v>5032</v>
       </c>
       <c r="C2825" s="5">
-        <v>21457.73</v>
+        <v>22411.41</v>
       </c>
       <c r="D2825" s="7" t="s">
         <v>59</v>
@@ -57530,8 +57530,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D2915">
-    <sortCondition ref="B2:B2915"/>
+  <sortState ref="A2:D2925">
+    <sortCondition ref="B2:B2925"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
